--- a/水电/水电材料.xlsx
+++ b/水电/水电材料.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84307604-2E62-41EE-A105-C9525D0C5A74}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129DE7F-0A9D-4FAC-8F6C-C5EBAE381AC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2616" yWindow="1644" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
   <si>
     <t>材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>连体内斯弯头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40×45°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -263,6 +255,22 @@
   </si>
   <si>
     <t>12m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连体内丝弯头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,12 +303,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -330,13 +350,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,16 +650,16 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" sqref="A1:C38"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.375" style="3"/>
-    <col min="4" max="16384" width="17.375" style="2"/>
+    <col min="1" max="3" width="17.33203125" style="3"/>
+    <col min="4" max="16384" width="17.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -647,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -658,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -669,7 +695,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -680,7 +706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -691,7 +717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -702,7 +728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -713,7 +739,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -724,125 +750,125 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="B10" s="3">
         <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B15" s="3">
         <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="3">
         <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="B18" s="3">
         <v>86</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>16</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -850,81 +876,87 @@
         <v>16</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="B21" s="3">
         <v>16</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B25" s="3">
         <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>6</v>
       </c>
@@ -935,108 +967,108 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="3">
         <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+      <c r="B33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/水电/水电材料.xlsx
+++ b/水电/水电材料.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8129DE7F-0A9D-4FAC-8F6C-C5EBAE381AC2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301F3BF5-480D-4564-B079-672D4D1F616B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="1644" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,34 +42,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弯头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>直接</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20×45°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,38 +62,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内丝三通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小过桥</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>丝堵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备用水龙头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双活节球阀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,38 +98,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线盒/合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>线管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>42米</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>锁扣</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胶布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,18 +122,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PVC管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.5m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>75×50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一小桶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40×45°</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,30 +162,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>50m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>连体内丝弯头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -270,7 +182,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.5m</t>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小桶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,8 +266,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -346,11 +302,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,6 +349,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -645,21 +632,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="17.33203125" style="3"/>
-    <col min="4" max="16384" width="17.33203125" style="2"/>
+    <col min="1" max="4" width="17.33203125" style="3"/>
+    <col min="5" max="16384" width="17.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -670,405 +657,724 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="8">
+        <f>SUM(F2:F38)</f>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3">
         <v>70</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="3">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2">
+        <f>C2*E2</f>
+        <v>480</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>20</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F38" si="0">C3*E3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>20</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B8" s="3">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>20</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>20</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B17" s="3">
         <v>20</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B18" s="3">
         <v>86</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>36</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3">
+        <v>42</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
         <v>16</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>30</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>50</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="3">
         <v>50</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3">
         <v>40</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C32" s="3">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="3">
         <v>50</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="C34" s="3">
+        <v>70</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C35" s="3">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="C37" s="3">
+        <v>10</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <v>12</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
